--- a/nickwork/plot2017.xlsx
+++ b/nickwork/plot2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickrad/Desktop/workspace/practice/project2/project-baseball/nickwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4089D0F4-635A-764B-BD22-31D55C75ED74}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7F8792-EA39-3E4D-8F45-8F13B578F490}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="21600" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
